--- a/step4-Count.xlsx
+++ b/step4-Count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A76322-CF0C-4677-A059-9AE619CD599D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5860C99D-3BC2-458C-96D3-6A78964623F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,12 +617,12 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f>I8-1.96*H8/SQRT(30)</f>
+        <f>I8-2.045*H8/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f>I8+1.96*H8/SQRT(30)</f>
+        <f>I8+2.045*H8/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
@@ -652,12 +652,12 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f>I9-1.96*H9/SQRT(30)</f>
+        <f t="shared" ref="J9:J10" si="0">I9-2.045*H9/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <f>I9+1.96*H9/SQRT(30)</f>
+        <f t="shared" ref="L9:L10" si="1">I9+2.045*H9/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
@@ -687,12 +687,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f>I10-1.96*H10/SQRT(30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f>I10+1.96*H10/SQRT(30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
@@ -1836,13 +1836,13 @@
     <sortCondition ref="B2:B91"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
